--- a/data/financial_statements/soci/FFIV.xlsx
+++ b/data/financial_statements/soci/FFIV.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1508 +593,1541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>700378000</v>
+      </c>
+      <c r="C2">
         <v>700033000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>674488000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>634224000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>687100000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>681997000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>651515000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>645287000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>624617000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>614816100</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>583252000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>583449000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>569305000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>590387900</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>563394000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>544895000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>543770000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>562708900</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>542203000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>533304000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>523191000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>537998000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>517837000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>518248000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>515958000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>525349100</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>496522000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>483677000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>489486000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>501301100</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>483586000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>472143000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>462793000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>465266000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>440285000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>420043000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>406452000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>395329000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>370302000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>350232000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0193</v>
+      </c>
+      <c r="C3">
         <v>0.0264</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0353</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0171</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1093</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.117</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.106</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09719999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0414</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.0352</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0708</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.047</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0492</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0391</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0217</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0393</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0459</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0471</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0291</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.014</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0241</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0429</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.07149999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0541</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.048</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0268</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0244</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0577</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0775</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0983</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.124</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1386</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1769</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.189</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.1993</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1122</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.09039999999999999</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0501</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0312</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>155007000</v>
+      </c>
+      <c r="C4">
         <v>147462000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>130733000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>126359000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>135073000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>128678000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>120904000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>128585000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>114979000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>111967000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>106040000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>101238000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>88642000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>90918000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>90767000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>88178000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>86714000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>93440000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>91009000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>89645000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>87387000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>90541000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>89770000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>87912000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>85262000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>84949000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>84343000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>82230000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>85683000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>84658000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>85659000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>82596000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>79348000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>81952000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>79462000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>75662000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>72883000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>66943000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>64917000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>60302000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>545371000</v>
+      </c>
+      <c r="C5">
         <v>552570900</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>543755000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>507865000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>552027000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>553319000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>530611000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>516702000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>509638000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>502849100</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>477212000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>482211000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>480663000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>499469900</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>472627000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>456717000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>457056000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>469268900</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>451194000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>443659000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>435804000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>447457100</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>428067000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>430336000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>430696000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>440400100</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>412179000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>401447000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>403803000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>416643000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>397927000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>389547000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>383445000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>383314100</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>360823000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>344381000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>333569000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>328386000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>305385000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>289930000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>142323000</v>
+      </c>
+      <c r="C6">
         <v>138522000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>138737000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>135838000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>130271000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>124700000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>133283000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>140453000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>114191000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>120300000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>115991000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>109028000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>96005000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>102812000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>116894000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>96314000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>92038000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>95078000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>94061000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>91056000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>85889000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>85479000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>88602000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>89234000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>87050000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>83746000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>83042000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>86294000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>81145000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>77665000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>74337000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>74521000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>70060000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>65401000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>67026000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>67232000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>64133000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>54464000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>54075000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>52534000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>303096000</v>
+      </c>
+      <c r="C7">
         <v>306519000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>297554000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>297380000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>299696000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>302254900</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>300916000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>322748000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>277699000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>283936000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>273600000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>289485000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>254523000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>281944000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>252993000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>217610000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>206802000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>202173000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>205180000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>209246000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>207918000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>199900000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>200320000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>202714000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>206192000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>193391000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>190802000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>191272000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>191709000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>191379000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>183460000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>182171000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>181070000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>170432000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>167718000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>166285000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>160303000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>146347900</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>147233000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>144920000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>91212000</v>
+      </c>
+      <c r="C8">
         <v>107530100</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>107463900</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>74647000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>114150900</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>126364200</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>96412000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>53501000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>117748000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>98613100</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>87621000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>83698000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>122335000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>114713900</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>102740000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>142793000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>158216000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>153591900</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>151953000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>143357000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>141997000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>148835000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>139144000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>138523000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>137454000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>162633200</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>138862000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>114933000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>130949000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>147599100</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>140130000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>132855000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>132315000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>147481000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>126079000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>110864000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>109133000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>125181000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>104077000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>92476000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
         <v>300000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>400000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>300000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>700000</v>
-      </c>
-      <c r="I9">
-        <v>1100000</v>
       </c>
       <c r="J9">
         <v>1100000</v>
       </c>
       <c r="K9">
+        <v>1100000</v>
+      </c>
+      <c r="L9">
         <v>2200000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>4702000</v>
+      </c>
+      <c r="C10">
         <v>-7813000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-6221000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1934000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-2431000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-2865000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-2163000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-1377000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-683000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1090000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>141000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-141000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>5220000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3397000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4722000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7434000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7095000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5667000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2259000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2790000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2145000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5027000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2589000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1302000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2643000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>268000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>978000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>133000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1135000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1865000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>720000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3266000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2594000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2323000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1193000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>23000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>246000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>732000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2874000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2118000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>95914000</v>
+      </c>
+      <c r="C11">
         <v>99717000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>101243000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>72713000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>111720000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>123499000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>94249000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>52124000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>117065000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>97523000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>87762000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>83557000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>127555000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>118111000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>107462000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>150227000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>165311000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>159259000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>154212000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>146147000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>144142000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>153862000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>141733000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>139825000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>140097000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>162901000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>139840000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>115066000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>132084000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>149464000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>140850000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>136121000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>134909000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>149804000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>127272000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>110887000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>109379000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>125913000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>106951000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>94594000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>23512000</v>
+      </c>
+      <c r="C12">
         <v>10371000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>18224000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>16477000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>18161000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12781000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4645000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8883000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>29387000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19860000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17890000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>22178000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>29028000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>23274000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>21557000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>34140000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>34406000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>26378000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>31469000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>36511000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>55713000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>18119000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>44071000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>46687000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>45879000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>53966000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>48051000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>39651000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>42368000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>52427000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>47678000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>50392000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>45833000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>55783000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>47799000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>41246000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>41331000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>49682000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>38773000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>31182000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>72402000</v>
+      </c>
+      <c r="C13">
         <v>89346000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>83019000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>56236000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>93559000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>110718000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>89604000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>43241000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>87678000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>77663000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>69872000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>61379000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>98527000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>94837000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>85905000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>116087000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>130905000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>132881000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>122743000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>109636000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>88429000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>135743100</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>97662000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>93138000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>94218000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>108935000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>91789000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>75415000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>89716000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>97037000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>93172000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>85729000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>89076000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>94021000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>79473000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>69641000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>68048000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>76231000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>68178000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>63412000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1988,19 +2135,19 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="P14">
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="Q14">
         <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="T14">
         <v>0</v>
       </c>
       <c r="AE14">
@@ -2009,13 +2156,13 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AI14">
+      <c r="AG14">
         <v>0</v>
       </c>
       <c r="AJ14">
         <v>0</v>
       </c>
-      <c r="AL14">
+      <c r="AK14">
         <v>0</v>
       </c>
       <c r="AM14">
@@ -2024,2444 +2171,2495 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>72402000</v>
+      </c>
+      <c r="C15">
         <v>89346000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>83019000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>56236000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>93559000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>110718000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>89604000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>43241000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>87678000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>77663000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>69872000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>61379000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>98527000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>94837000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>85905000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>116087000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>130905000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>132881000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>122743000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>109636000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>88429000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>135743000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>97662000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>93138000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>94218000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>108935000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>91789000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>75415000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>89716000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>97037000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>93172000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>85729000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>89076000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>94021000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>79473000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>69641000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>68048000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>76231000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>68178000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>63412000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.5</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.38</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.93</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.54</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.83</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.49</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.71</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.43</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.27</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.15</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.01</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.62</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.57</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.43</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.94</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.17</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.01</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.79</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.42</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2.15</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.53</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.44</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.45</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.66</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.37</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.12</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.29</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.37</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.3</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.19</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1.21</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.27</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.06</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.92</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.88</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.97</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.87</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1.49</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.37</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.92</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.51</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.8</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.46</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.7</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.41</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.26</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.62</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.57</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.43</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.93</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.16</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.18</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.99</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.77</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.41</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2.14</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.52</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1.43</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.44</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1.64</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1.37</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1.11</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.28</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1.36</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1.29</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1.18</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1.21</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1.26</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1.05</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.91</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.87</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.97</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.86</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>60096000</v>
+      </c>
+      <c r="C18">
         <v>60274000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>59965000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>60573000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>60810000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>60707000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>60186000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>60667000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>61440000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>60911000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>60978000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>60869000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>60649000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>60044000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>59981000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>59686000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>60216000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>61262000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>60970000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>61420000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>62195000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>64173000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>63935000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>64479000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>65195000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>67433000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>66851000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>67549000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>69554000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>71944000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>71509000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>72240000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>73350000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>75395000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>74812000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>75508000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>77438000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>78565000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>78516000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>78601000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>60387000</v>
+      </c>
+      <c r="C19">
         <v>61097000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>60460000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>61405000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>61882000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>62057000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>61351000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>62158000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>62282000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>61378000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>61415000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>61084000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>60815000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>60456000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>60196000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>60029000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>60645000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>62013000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>61633000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>62059000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>62550000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>64775000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>64361000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>65028000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>65645000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>67984000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>67235000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>67804000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>69878000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>72547000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>71957000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>72711000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>73857000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>76092000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>75369000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>76244000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>77822000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>79136000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>78864000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>79114000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.7786999999999999</v>
+      </c>
+      <c r="C20">
         <v>0.7893</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.8062</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.8008</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.8034</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.8113</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.8144</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.8007</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.8159</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.8179</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.8182</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.8265</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.8443000000000001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.846</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.8389</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.8381999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.8405</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.8339</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.8321</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.8319</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.833</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.8317</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.8266</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.8304</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.8348</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.8383</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.8300999999999999</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.83</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.825</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.8310999999999999</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.8229</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.8250999999999999</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.8285</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.8239</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.8195</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.8199</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.8207</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.8307</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.8247</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.8278</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1302</v>
+      </c>
+      <c r="C21">
         <v>0.1536</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.1593</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1177</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1661</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1853</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.148</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.0829</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1885</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1604</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1502</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1435</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2149</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1943</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1824</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2621</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.291</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.273</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2803</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2688</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2714</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2766</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2687</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2673</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2664</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3096</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2797</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2376</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2675</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2944</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2898</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2814</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2859</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.317</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2864</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2639</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2685</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3167</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2811</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.264</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1369</v>
+      </c>
+      <c r="C22">
         <v>0.1424</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1501</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1146</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1626</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1811</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1447</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.0808</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1874</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1586</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1505</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1432</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2241</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2001</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1907</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2757</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.304</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.283</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2844</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.274</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2755</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.286</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2737</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2698</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2715</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.3101</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2816</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2379</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2698</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2982</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2913</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2883</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2915</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.322</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2891</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.264</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2691</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.3185</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2888</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2701</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1034</v>
+      </c>
+      <c r="C23">
         <v>0.1276</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1231</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.0887</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1362</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1623</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1375</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.067</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1404</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1263</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1198</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1052</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1731</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1606</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1525</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.213</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.2407</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.2361</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.2264</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.2056</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.169</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.2523</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1886</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1797</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1826</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.2074</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1849</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1559</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1833</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1936</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1927</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1816</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1925</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.2021</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1805</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1658</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1674</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1928</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1841</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1811</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>134741100</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>136063900</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>104185000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>144410900</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>156803200</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>125212000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>82026000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>145408000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>125133100</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>113846000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>107831000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>141314000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>136575900</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>121139000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>157038000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>172217000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>169001900</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>165985000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>158226000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>157177000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>164380000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>154469000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>153914000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>152341000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>177125200</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>153299000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>129017000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>144712000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>160957100</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>153101000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>146067000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>145357000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>159547000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>137456000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>122105000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>120570000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>135481000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>113869000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>102455000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>91212000</v>
+      </c>
+      <c r="C25">
         <v>107530200</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>107463900</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>74647000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>114150900</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>126364200</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>96412000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>53501000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>117748000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>98613100</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>87621000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>83698000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>122335000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>114714000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>102740000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>142793000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>158216000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>153591900</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>151953000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>143357000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>141997000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>148835000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>139144000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>138523000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>137454000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>162633100</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>138862000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>114933000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>130949000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>147599000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>140130000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>132855000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>132315000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>147481000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>126079000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>110864000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>109133000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>125181000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>104077000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>92476000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>72402000</v>
+      </c>
+      <c r="C26">
         <v>89346000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>83019000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>56236000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>93559000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>110718000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>89604000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>43241000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>87678000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>77663000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>69872000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>61379000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>98527000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>94837000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>85905000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>116087000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>130905000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>132881000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>122743000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>109636000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>88429000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>135743100</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>97662000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>93138000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>94218000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>108935000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>91789000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>75415000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>89716000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>97037000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>93172000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>85729000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>89076000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>94021000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>79473000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>69641000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>68048000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>76231000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>68178000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>63412000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>72402000</v>
+      </c>
+      <c r="C27">
         <v>89346000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>83019000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>56236000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>93559000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>110718000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>89604000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>43241000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>87678000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>77663000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>69872000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>61379000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>98527000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>94837000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>85905000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>116087000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>130905000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>132881000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>122743000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>109636000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>88429000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>135743100</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>97662000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>93138000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>94218000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>108935000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>91789000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>75415000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>89716000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>97037000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>93172000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>85729000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>89076000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>94021000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>79473000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>69641000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>68048000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>76231000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>68178000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>63412000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.2048</v>
+      </c>
+      <c r="C28">
         <v>1.4935</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.3845</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.9284</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.5385</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.8278</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.4888</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.7128</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.4271</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.2686</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.1459</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.0084</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.6245</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.5726</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.4322</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.945</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.1739</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.1857</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.0132</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.785</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.4218</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2.1395</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.5275</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1.4445</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.4452</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1.6461</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1.373</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.1164</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.2899</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.3695</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.3029</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1.1867</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1.2144</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1.264</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1.0623</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.9223</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.8787</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.9726</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.8683</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.8068</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.199</v>
+      </c>
+      <c r="C29">
         <v>1.4721</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.3731</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.9157999999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.5119</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.7738</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.4605</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.6957</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.4078</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.2463</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.1377</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.0048</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.6201</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.5556</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.4271</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.9338</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.1585</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.1441</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.9915</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.7666</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1.4137</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2.1108</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.5174</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.4323</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.4353</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1.6201</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1.3652</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.1123</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.2839</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.3515</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.2948</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.179</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.2061</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.2473</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.0545</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.9134</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.8744</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.9617</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.8645</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.8015</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1.2048</v>
+      </c>
+      <c r="C30">
         <v>1.4935</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.3845</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.9284</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.5385</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.8278</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.4888</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.7128</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.4271</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.2686</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.1459</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.0084</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.6245</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.5726</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.4322</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.945</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.1739</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.1857</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.0132</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.785</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.4218</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2.1395</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.5275</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.4445</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.4452</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.6461</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.373</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.1164</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.2899</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.3695</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.3029</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.1867</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.2144</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.264</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.0623</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.9223</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.8787</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.9726</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.8683</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.8068</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.199</v>
+      </c>
+      <c r="C31">
         <v>1.4721</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.3731</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.9157999999999999</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.5119</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.7738</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.4605</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.6957</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.4078</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.2463</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.1377</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.0048</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.6201</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.5556</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.4271</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.9338</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.1585</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.1441</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.9915</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.7666</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.4137</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2.1108</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.5174</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.4323</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.4353</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.6201</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.3652</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.1123</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.2839</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.3515</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.2948</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.179</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.2061</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.2473</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.0545</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.9134</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.8744</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.9617</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.8645</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.8015</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>60126000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>60460000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>61405000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>61882000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>61606000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>61351000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>62158000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>62282000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>61636000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>61415000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>61084000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>60815000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>60448000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>60196000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>60029000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>60645000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>61070000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>61633000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>62059000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>62550000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>63446000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>64361000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>65028000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>65645000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>66262000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>67235000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>67804000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>69878000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>71098000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>71957000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>72711000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>73857000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>74366000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>75369000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>76244000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>77822000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>78674000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>78864000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>79114000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.1925</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2017</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1643</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.2102</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2299</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.1922</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1271</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.2328</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2035</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.1952</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.1848</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.2482</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.2313</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.215</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.2882</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.3167</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.3003</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.3061</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.2967</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.3004</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3055</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.2983</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.297</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.2953</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.3372</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.3087</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.2667</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.2956</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.3211</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3166</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3094</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.3141</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.3429</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3122</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.2907</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.2966</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.3427</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.3075</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.2925</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.2396</v>
+        <v>0.2251</v>
       </c>
       <c r="C34">
-        <v>0.1245</v>
+        <v>0.2205</v>
       </c>
       <c r="D34">
-        <v>0.2183</v>
+        <v>0.1059</v>
       </c>
       <c r="E34">
-        <v>0.1521</v>
+        <v>0.1995</v>
       </c>
       <c r="F34">
-        <v>0.3083</v>
+        <v>0.1315</v>
       </c>
       <c r="G34">
+        <v>0.2889</v>
+      </c>
+      <c r="H34">
         <v>0.2798</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1991</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2199</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2861</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.2729</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.3116</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.253</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3491</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.2669</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.3552</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.3639</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.3631</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.3358</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.3464</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.3631</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.396</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.3139</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.3383</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.3669</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.3884</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.3433</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.2752</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.4165</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.3657</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.3567</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.3014</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.4028</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.3651</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.314</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.1951</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.391</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.3744</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.3409</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.2303</v>
       </c>
     </row>
